--- a/data/turm/MCT-1A/MCT-1A_(1)bimestre.xlsx
+++ b/data/turm/MCT-1A/MCT-1A_(1)bimestre.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestão Integrada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,12 +483,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Cleidson-Circuitos Elétricos 1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestão Integrada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Cleidson-Circuitos Elétricos 1</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(1)bimestre</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(1)semestre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0_(1)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Anselmo-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(1)semestre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0_(1)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Anselmo-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(1)semestre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0_(1)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(1)semestre</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0_(1)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0_(1)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MCT-1A/MCT-1A_(1)bimestre.xlsx
+++ b/data/turm/MCT-1A/MCT-1A_(1)bimestre.xlsx
@@ -478,12 +478,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(1)bimestre</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(1)semestre</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anselmo-Gestão Integrada</t>
+          <t>0_(1)semestre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(1)bimestre</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(1)semestre</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0_(1)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0_(1)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(1)bimestre</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,12 +552,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestão Integrada</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0_(1)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0_(1)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(1)bimestre</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>André Guimarães-Desenho Técnico</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0_(1)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0_(1)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0_(1)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0_(1)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Joel Lima-Tecnologia dos Materiais_(1)semestre</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>André Guimarães-Desenho Técnico</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/data/turm/MCT-1A/MCT-1A_(1)bimestre.xlsx
+++ b/data/turm/MCT-1A/MCT-1A_(1)bimestre.xlsx
@@ -478,17 +478,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0_(1)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0_(1)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cleidson-Circuitos Elétricos 1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0_(1)semestre</t>
+          <t>André Guimarães-Desenho Técnico</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_(1)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0_(1)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cleidson-Circuitos Elétricos 1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,22 +537,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>André Guimarães-Desenho Técnico</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Joel Lima-Tecnologia dos Materiais_(1)semestre</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>0_(1)bimestre</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Anselmo-Gestão Integrada</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,22 +601,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleidson-Circuitos Elétricos 1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Joel Lima-Tecnologia dos Materiais_(1)semestre</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>0_(1)bimestre</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>André Guimarães-Desenho Técnico</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleidson-Circuitos Elétricos 1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Joel Lima-Tecnologia dos Materiais_(1)semestre</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>André Guimarães-Desenho Técnico</t>
+          <t>0_(1)bimestre</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,22 +665,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestão Integrada</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Joel Lima-Tecnologia dos Materiais_(1)semestre</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Joel Lima-Tecnologia dos Materiais_(1)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(1)bimestre</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
